--- a/public/admin/letters/offer_letter.xlsx
+++ b/public/admin/letters/offer_letter.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="58">
   <si>
     <t>Client_Name</t>
   </si>
@@ -99,12 +99,12 @@
     <t>Employee_ESIC</t>
   </si>
   <si>
+    <t>Employee_LWF</t>
+  </si>
+  <si>
     <t>PT</t>
   </si>
   <si>
-    <t>LWF</t>
-  </si>
-  <si>
     <t>Total_Deduction</t>
   </si>
   <si>
@@ -117,7 +117,13 @@
     <t>Employer_ESIC</t>
   </si>
   <si>
+    <t>Employer_LWF</t>
+  </si>
+  <si>
     <t>Mediclaim</t>
+  </si>
+  <si>
+    <t>CTC</t>
   </si>
   <si>
     <t>Notice_Period</t>
@@ -893,7 +899,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -902,8 +908,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1447,121 +1451,127 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AF2"/>
+  <dimension ref="A1:AH2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView tabSelected="1" topLeftCell="AE1" workbookViewId="0">
+      <selection activeCell="AF1" sqref="AF1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="34" width="27.4444444444444" customWidth="1"/>
+    <col min="1" max="36" width="27.4444444444444" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="6" customFormat="1" spans="1:32">
-      <c r="A1" s="6" t="s">
+    <row r="1" s="4" customFormat="1" spans="1:34">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="M1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="N1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="O1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="P1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="Q1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="6" t="s">
+      <c r="R1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="6" t="s">
+      <c r="S1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="6" t="s">
+      <c r="T1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="6" t="s">
+      <c r="U1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="6" t="s">
+      <c r="V1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="6" t="s">
+      <c r="W1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="6" t="s">
+      <c r="X1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="6" t="s">
+      <c r="Y1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="6" t="s">
+      <c r="Z1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="6" t="s">
+      <c r="AA1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="6" t="s">
+      <c r="AB1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="6" t="s">
+      <c r="AC1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="6" t="s">
+      <c r="AD1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="6" t="s">
+      <c r="AE1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="6" t="s">
+      <c r="AF1" s="4" t="s">
         <v>31</v>
+      </c>
+      <c r="AG1" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="4" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1594,16 +1604,16 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="K1" s="4" t="s">
         <v>37</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -1611,12 +1621,12 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="K2" s="5">
+        <v>34</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K2" s="2">
         <v>4</v>
       </c>
     </row>
@@ -1625,12 +1635,12 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="K3" s="5">
+        <v>41</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K3" s="2">
         <v>2</v>
       </c>
     </row>
@@ -1639,12 +1649,12 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="K4" s="5">
+        <v>42</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K4" s="2">
         <v>3</v>
       </c>
     </row>
@@ -1653,12 +1663,12 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="K5" s="5">
+        <v>44</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K5" s="2">
         <v>5</v>
       </c>
     </row>
@@ -1667,7 +1677,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1675,7 +1685,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1683,7 +1693,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1691,7 +1701,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1699,7 +1709,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1707,7 +1717,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1715,7 +1725,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1723,7 +1733,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -1731,7 +1741,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -1739,7 +1749,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -1747,7 +1757,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -1755,7 +1765,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/public/admin/letters/offer_letter.xlsx
+++ b/public/admin/letters/offer_letter.xlsx
@@ -28,12 +28,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="60">
   <si>
     <t>Client_Name</t>
   </si>
   <si>
-    <t>Employee_ID</t>
+    <t>FFI_Employee_ID</t>
   </si>
   <si>
     <t>Employee_Name</t>
@@ -60,6 +60,9 @@
     <t>Father_Name</t>
   </si>
   <si>
+    <t>Gender_Salutation</t>
+  </si>
+  <si>
     <t>Tenure_Month</t>
   </si>
   <si>
@@ -72,15 +75,9 @@
     <t>HRA</t>
   </si>
   <si>
-    <t>Leave_Wage</t>
-  </si>
-  <si>
     <t>Conveyance</t>
   </si>
   <si>
-    <t>Medical_Reimbursement</t>
-  </si>
-  <si>
     <t>Special_Allowance</t>
   </si>
   <si>
@@ -105,10 +102,13 @@
     <t>PT</t>
   </si>
   <si>
+    <t>Other_Deduction</t>
+  </si>
+  <si>
     <t>Total_Deduction</t>
   </si>
   <si>
-    <t>Take_Home_Salary</t>
+    <t>Net_Take_Home_Salary - NTH (Gross_Salary - Total_Deduction)</t>
   </si>
   <si>
     <t>Employer_PF</t>
@@ -123,7 +123,7 @@
     <t>Mediclaim</t>
   </si>
   <si>
-    <t>CTC</t>
+    <t>Cost_To_Company - CTC (Gross_Salary + Employer_Deduction)</t>
   </si>
   <si>
     <t>Notice_Period</t>
@@ -133,6 +133,9 @@
   </si>
   <si>
     <t>Blink Commerce Private Limited</t>
+  </si>
+  <si>
+    <t>S/O</t>
   </si>
   <si>
     <t>Grofers</t>
@@ -251,6 +254,9 @@
   </si>
   <si>
     <t>PROCONNECT SUPPLY CHAIN SOLUTIONS PVT LTD</t>
+  </si>
+  <si>
+    <t>D/O</t>
   </si>
   <si>
     <t>Rapidue Technologies Pvt Ltd</t>
@@ -1186,13 +1192,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/customStorage/customStorage.xml><?xml version="1.0" encoding="utf-8"?>
-<customStorage xmlns="https://web.wps.cn/et/2018/main">
-  <book/>
-  <sheets/>
-</customStorage>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
@@ -1453,13 +1452,17 @@
   <sheetPr/>
   <dimension ref="A1:AH2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AE1" workbookViewId="0">
-      <selection activeCell="AF1" sqref="AF1"/>
+    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
+      <selection activeCell="AA1" sqref="AA1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="36" width="27.4444444444444" customWidth="1"/>
+    <col min="1" max="26" width="27.4444444444444" customWidth="1"/>
+    <col min="27" max="27" width="65.7777777777778" customWidth="1"/>
+    <col min="28" max="31" width="27.4444444444444" customWidth="1"/>
+    <col min="32" max="32" width="63.7777777777778" customWidth="1"/>
+    <col min="33" max="36" width="27.4444444444444" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="4" customFormat="1" spans="1:34">
@@ -1566,20 +1569,26 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:13">
       <c r="A2" t="s">
         <v>34</v>
       </c>
-      <c r="L2" t="s">
+      <c r="K2" t="s">
         <v>35</v>
       </c>
+      <c r="M2" t="s">
+        <v>36</v>
+      </c>
     </row>
   </sheetData>
-  <dataValidations count="2">
+  <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2">
       <formula1>Sheet2!$B$2:$B$28</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2">
+      <formula1>Sheet2!$K$12:$K$13</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2">
       <formula1>Sheet2!$J$2:$J$5</formula1>
     </dataValidation>
   </dataValidations>
@@ -1594,7 +1603,7 @@
   <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -1604,16 +1613,16 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -1624,7 +1633,7 @@
         <v>34</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K2" s="2">
         <v>4</v>
@@ -1635,10 +1644,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K3" s="2">
         <v>2</v>
@@ -1649,10 +1658,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K4" s="2">
         <v>3</v>
@@ -1663,10 +1672,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K5" s="2">
         <v>5</v>
@@ -1677,7 +1686,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1685,7 +1694,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1693,7 +1702,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1701,7 +1710,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1709,7 +1718,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1717,23 +1726,29 @@
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="2">
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>53</v>
+      </c>
+      <c r="K12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="2">
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
+      </c>
+      <c r="K13" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -1741,7 +1756,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -1749,7 +1764,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -1757,7 +1772,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -1765,7 +1780,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/public/admin/letters/offer_letter.xlsx
+++ b/public/admin/letters/offer_letter.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="61">
   <si>
     <t>Client_Name</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Joining_Date</t>
   </si>
   <si>
-    <t>Father_Name</t>
+    <t>Father_Name / Husband_Name</t>
   </si>
   <si>
     <t>Gender_Salutation</t>
@@ -260,6 +260,9 @@
   </si>
   <si>
     <t>Rapidue Technologies Pvt Ltd</t>
+  </si>
+  <si>
+    <t>W/O</t>
   </si>
   <si>
     <t>TTP Technologies Private Limited</t>
@@ -1452,8 +1455,8 @@
   <sheetPr/>
   <dimension ref="A1:AH2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
-      <selection activeCell="AA1" sqref="AA1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="1"/>
@@ -1586,7 +1589,7 @@
       <formula1>Sheet2!$B$2:$B$28</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2">
-      <formula1>Sheet2!$K$12:$K$13</formula1>
+      <formula1>Sheet2!$K$12:$K$14</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2">
       <formula1>Sheet2!$J$2:$J$5</formula1>
@@ -1603,7 +1606,7 @@
   <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -1751,12 +1754,15 @@
         <v>55</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:11">
       <c r="A14" s="2">
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>56</v>
+      </c>
+      <c r="K14" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -1764,7 +1770,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -1772,7 +1778,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -1780,7 +1786,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/public/admin/letters/offer_letter.xlsx
+++ b/public/admin/letters/offer_letter.xlsx
@@ -57,10 +57,10 @@
     <t>Joining_Date</t>
   </si>
   <si>
+    <t>Gender_Salutation</t>
+  </si>
+  <si>
     <t>Father_Name / Husband_Name</t>
-  </si>
-  <si>
-    <t>Gender_Salutation</t>
   </si>
   <si>
     <t>Tenure_Month</t>
@@ -308,7 +308,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1455,8 +1455,8 @@
   <sheetPr/>
   <dimension ref="A1:AH2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="1"/>
@@ -1576,7 +1576,7 @@
       <c r="A2" t="s">
         <v>34</v>
       </c>
-      <c r="K2" t="s">
+      <c r="J2" t="s">
         <v>35</v>
       </c>
       <c r="M2" t="s">
@@ -1588,7 +1588,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2">
       <formula1>Sheet2!$B$2:$B$28</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2">
       <formula1>Sheet2!$K$12:$K$14</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2">

--- a/public/admin/letters/offer_letter.xlsx
+++ b/public/admin/letters/offer_letter.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9000"/>
+    <workbookView windowWidth="22188" windowHeight="9000" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="62">
   <si>
     <t>Client_Name</t>
   </si>
@@ -273,6 +273,9 @@
   <si>
     <t>Zomato Hyperpure Private Limited</t>
   </si>
+  <si>
+    <t>Unique Punch Systems Pvt Ltd</t>
+  </si>
 </sst>
 </file>
 
@@ -284,7 +287,7 @@
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -303,6 +306,12 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.1"/>
+      <color rgb="FF000000"/>
+      <name val="Segoe UI"/>
       <charset val="134"/>
     </font>
     <font>
@@ -778,137 +787,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -917,7 +926,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1455,7 +1467,7 @@
   <sheetPr/>
   <dimension ref="A1:AH2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView topLeftCell="F1" workbookViewId="0">
       <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
@@ -1468,107 +1480,107 @@
     <col min="33" max="36" width="27.4444444444444" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="4" customFormat="1" spans="1:34">
-      <c r="A1" s="4" t="s">
+    <row r="1" s="5" customFormat="1" spans="1:34">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="O1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="P1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="Q1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="R1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="S1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="T1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="U1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="V1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="W1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="4" t="s">
+      <c r="X1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="4" t="s">
+      <c r="Y1" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="4" t="s">
+      <c r="Z1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="4" t="s">
+      <c r="AA1" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="4" t="s">
+      <c r="AB1" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="4" t="s">
+      <c r="AC1" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="4" t="s">
+      <c r="AD1" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="4" t="s">
+      <c r="AE1" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="4" t="s">
+      <c r="AF1" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="4" t="s">
+      <c r="AG1" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="4" t="s">
+      <c r="AH1" s="5" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1603,10 +1615,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -1789,6 +1801,14 @@
         <v>60</v>
       </c>
     </row>
+    <row r="18" ht="15" spans="1:2">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
